--- a/data/trans_orig/Q61A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Provincia-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>19.73773742448962</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>18.93344305488751</v>
+        <v>18.9334430548875</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.782145810041329</v>
+        <v>2.721610798777306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.72464031782567</v>
+        <v>12.85316578675376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.33349165107389</v>
+        <v>18.60820760362854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.926096924656218</v>
+        <v>8.578555957796393</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.967646304488637</v>
+        <v>2.092911967897905</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.235526533798867</v>
+        <v>9.192304397223547</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.967378346252708</v>
+        <v>9.710338134805667</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.13154456691942</v>
+        <v>16.04728849875979</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.760604648444642</v>
+        <v>2.83396782805395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12.35506698124166</v>
+        <v>12.55884947932101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.23221072630936</v>
+        <v>15.93184802912054</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.9578688610919</v>
+        <v>14.63638930866637</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.482910916272774</v>
+        <v>6.314250990660884</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.53417085210623</v>
+        <v>19.81566456182435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.76704361466118</v>
+        <v>30.91136544046465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.08600585981947</v>
+        <v>23.15789432096904</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.267821514709143</v>
+        <v>4.292031855777903</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.95320759937409</v>
+        <v>21.59895731522243</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.0277239462901</v>
+        <v>23.24420040418464</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>30.22578898560788</v>
+        <v>30.43229632857557</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.073005261193541</v>
+        <v>5.066967416952588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.49665073921636</v>
+        <v>18.84383826780334</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24.41452182055755</v>
+        <v>24.83791780649444</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>25.25684697294275</v>
+        <v>25.31891708786376</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>15.79679411086078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19.13304094809803</v>
+        <v>19.13304094809804</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>8.101868994005807</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.39654304294782</v>
+        <v>4.545786835723876</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>13.16233549313742</v>
+        <v>13.27994254851363</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13.49275378535401</v>
+        <v>13.35547096055081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13.40681154548418</v>
+        <v>13.1077315470842</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.261903052651405</v>
+        <v>5.092436636234155</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.68329751539313</v>
+        <v>13.73327354011354</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>19.00748596219431</v>
+        <v>18.59281691147944</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>21.51372034114787</v>
+        <v>21.83479525454048</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.195413134523629</v>
+        <v>5.24484122579183</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14.14719833867782</v>
+        <v>14.07525920419125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.52771162106808</v>
+        <v>16.31675571546443</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>19.19191490049164</v>
+        <v>19.3149536281589</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.459115195265676</v>
+        <v>9.748401384389833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.45568451384447</v>
+        <v>19.51554911698073</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.85340574233169</v>
+        <v>18.91623697875771</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28.68737042652808</v>
+        <v>27.44044886653375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>16.89816082293466</v>
+        <v>16.07746007549282</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.81514973524913</v>
+        <v>22.75725774016369</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>29.17517163233353</v>
+        <v>29.15827087791499</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>40.30329531409539</v>
+        <v>40.5361019717085</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.3392563987157</v>
+        <v>10.19991478433758</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19.41576905397041</v>
+        <v>19.10840437060562</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21.9450657584699</v>
+        <v>21.5482184052904</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>31.17473383450131</v>
+        <v>31.01134192179673</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>21.50849592843482</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>19.97451311385676</v>
+        <v>19.97451311385675</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.412559754023816</v>
+        <v>3.33498214795951</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.27106243051012</v>
+        <v>13.27861629664219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.84725127401623</v>
+        <v>13.04733828379459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.17566306532481</v>
+        <v>15.98979601411534</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.042210381307745</v>
+        <v>5.178015349174058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.00781748235781</v>
+        <v>13.18380134991441</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>19.46685956177613</v>
+        <v>19.63569013726656</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.93061190630664</v>
+        <v>13.47525243701182</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.934596352339301</v>
+        <v>4.997241323189905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14.64049800634488</v>
+        <v>14.46598481954112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.86957936968674</v>
+        <v>18.21318044863841</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.56513200747174</v>
+        <v>15.376662203014</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.693799915412143</v>
+        <v>8.499935164397014</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>34.24319442759436</v>
+        <v>34.9254622214705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27.07568595753029</v>
+        <v>26.77390408950586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33.3578011147074</v>
+        <v>34.15985151976601</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>23.86727364183812</v>
+        <v>23.71914692596143</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.66124013708168</v>
+        <v>21.68418576935525</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>29.15925534401897</v>
+        <v>29.21214920566095</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>29.35127423900401</v>
+        <v>32.65289850275565</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.82483957882334</v>
+        <v>14.62937998668339</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26.9113739468965</v>
+        <v>26.92587975941237</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.03033727211322</v>
+        <v>26.55475006482427</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>26.74100573983994</v>
+        <v>27.08188020597744</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>29.56860085641491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24.351826118987</v>
+        <v>24.35182611898701</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>5.431523659101963</v>
@@ -1101,7 +1101,7 @@
         <v>29.44333022865272</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>25.28238754126398</v>
+        <v>25.282387541264</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.448785492025944</v>
+        <v>3.38412103841059</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.81436919919574</v>
+        <v>13.63146512323465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24.34493402558389</v>
+        <v>24.32336799216031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.07454338872195</v>
+        <v>16.11887002019785</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.967604445468303</v>
+        <v>3.909009262999362</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>14.85738770724714</v>
+        <v>15.12302876754329</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>23.03764542096649</v>
+        <v>22.93190718052482</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>15.2355252244137</v>
+        <v>15.21335901046483</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.398463658440861</v>
+        <v>4.461538999973136</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14.95628969473274</v>
+        <v>15.23583184445446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24.66617178150665</v>
+        <v>25.32564916661612</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.76876076846439</v>
+        <v>16.49753262436533</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>38.3386316183152</v>
+        <v>46.68114873078476</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.47580190304949</v>
+        <v>24.7989688982173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35.88715556195752</v>
+        <v>35.79571465923205</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40.83545453907175</v>
+        <v>42.32579093890489</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.51555893025409</v>
+        <v>7.465107604122458</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.62943322490637</v>
+        <v>25.67491812411274</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>38.88657904604639</v>
+        <v>37.49098081621614</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>48.43247230698096</v>
+        <v>48.34692227349073</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>22.77251850297446</v>
+        <v>25.99801077881421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22.80461820168687</v>
+        <v>22.55647995473267</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34.47896161992138</v>
+        <v>34.00374109751731</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>36.97630744953315</v>
+        <v>36.99991738599532</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>20.60387845788156</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>18.09437353099375</v>
+        <v>18.09437353099376</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.365317667606961</v>
+        <v>2.35810871624186</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.36919690652107</v>
+        <v>11.35052693070967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.63654256893722</v>
+        <v>14.65006146198461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.343242008018183</v>
+        <v>8.456636175232852</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.260442571975422</v>
+        <v>3.261787875237364</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.06071781327448</v>
+        <v>9.75561877246184</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.57836230088129</v>
+        <v>17.5032534786028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.920596163584904</v>
+        <v>4.641975798367532</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.364634054113417</v>
+        <v>3.376708377175432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11.70785609562172</v>
+        <v>11.64534702018592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.54286981205778</v>
+        <v>17.51062365809075</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>9.978965066357182</v>
+        <v>9.661954274677512</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.704073019191573</v>
+        <v>6.87184401776044</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.25054234805829</v>
+        <v>17.16544782861305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.77745599686693</v>
+        <v>25.23268128269032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45.6390268842196</v>
+        <v>45.29121844066248</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.219691362907504</v>
+        <v>8.291146074232886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.11058353990339</v>
+        <v>20.12039838570696</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>27.80829612358703</v>
+        <v>26.77541249141004</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>21.21962597603185</v>
+        <v>19.71720422454267</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.967856450664542</v>
+        <v>6.723150862562667</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.117428269803</v>
+        <v>16.96716775035888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24.23282148954317</v>
+        <v>24.7273751084991</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>35.22722105109784</v>
+        <v>37.67932291417303</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.293470535731267</v>
+        <v>3.474007660647096</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.596954299566542</v>
+        <v>6.599469189489489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.706584725953945</v>
+        <v>9.828627491198274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.459215307248181</v>
+        <v>8.706327430066811</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.084403648779837</v>
+        <v>4.962206546729581</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>9.272097833303064</v>
+        <v>9.424058807529955</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.70596554130949</v>
+        <v>7.486109678879513</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.90217658958055</v>
+        <v>10.68024216072667</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.085074936954062</v>
+        <v>5.05157042812797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8.573310370880804</v>
+        <v>8.772225297624136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9.918780019657994</v>
+        <v>9.890007650000751</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>10.68962467273369</v>
+        <v>10.84935907612674</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.908923085650406</v>
+        <v>10.61469509979456</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.96434062136857</v>
+        <v>10.75913898911057</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.77150642802615</v>
+        <v>17.77756356722458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.82256628686311</v>
+        <v>22.76297678988403</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>51.17650186724126</v>
+        <v>42.87618204346391</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>20.45627829146823</v>
+        <v>20.54240523259561</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>16.62636303649544</v>
+        <v>16.45429794268264</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>20.2686103124407</v>
+        <v>20.88358893581853</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>28.10705549969619</v>
+        <v>28.90291472956741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14.46463082113403</v>
+        <v>14.27458283985341</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15.80575090327986</v>
+        <v>15.43074154343314</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.99806565806271</v>
+        <v>19.23357946279009</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>16.90874820971748</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>32.82724893689868</v>
+        <v>32.82724893689869</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.805567915753997</v>
+        <v>3.87597370686215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.06934262914369</v>
+        <v>12.09686763648189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.33128309162944</v>
+        <v>11.35245029614782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19.64959545352933</v>
+        <v>19.37843062880333</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.609601523578969</v>
+        <v>4.719604413500982</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.3443317295182</v>
+        <v>16.91397085251932</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>14.03006273444828</v>
+        <v>14.51865993912565</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>25.76119316899679</v>
+        <v>26.96967224063762</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.603112993577668</v>
+        <v>4.496877165063619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14.7505282495653</v>
+        <v>14.68389893519889</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13.70238465074873</v>
+        <v>13.81788839590323</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>25.57962175204556</v>
+        <v>25.9055124072993</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.310986703492912</v>
+        <v>8.120769876044699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.70096353242138</v>
+        <v>16.57423841534276</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.83285126519424</v>
+        <v>19.08224688364777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48.29921277815056</v>
+        <v>49.82605215910544</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.16118427555851</v>
+        <v>8.322816937407934</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.25366719741935</v>
+        <v>33.07285458099737</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>27.2344816461616</v>
+        <v>28.18132363847599</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>47.03364124365399</v>
+        <v>47.5053515201062</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.549641376553662</v>
+        <v>7.482904271301427</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22.68658185817592</v>
+        <v>22.55950581040038</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21.73596197110486</v>
+        <v>21.9818619500886</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>42.26271548157058</v>
+        <v>43.05010794025985</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>19.02474709737818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16.16603195140019</v>
+        <v>16.1660319514002</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.574554352693958</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.050051399383642</v>
+        <v>4.883793357626552</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.57158033120733</v>
+        <v>11.49559695631713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.42277447817234</v>
+        <v>16.34715560087003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12.74258504135655</v>
+        <v>12.51568351483713</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>5.924912122441353</v>
+        <v>5.910223326779942</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>16.48210511358461</v>
+        <v>16.57374907118826</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>20.44932720241546</v>
+        <v>20.52522329530681</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>13.43411855089239</v>
+        <v>13.46954349480518</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>5.965881628584004</v>
+        <v>6.026740789177548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14.83754092616948</v>
+        <v>14.72618395599811</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19.14760666775529</v>
+        <v>18.86278576719092</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>14.03181993208241</v>
+        <v>13.78591632044212</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.520547872686079</v>
+        <v>9.348057575268399</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.60055432141106</v>
+        <v>17.01809290247277</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22.9080718795793</v>
+        <v>22.47395182964221</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20.3635554983675</v>
+        <v>19.98955746761685</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>9.414983580741755</v>
+        <v>9.600834485507843</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>25.58568158271931</v>
+        <v>25.12040409176484</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>32.64221155894192</v>
+        <v>32.84330183344358</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>18.26958252185897</v>
+        <v>18.14545269774355</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>8.79980900643028</v>
+        <v>8.90042133274939</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20.31167928271764</v>
+        <v>20.41397357860018</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25.31358148235707</v>
+        <v>25.17201845555639</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>18.17103235778055</v>
+        <v>18.13084060974684</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>21.11206048324177</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>22.02294095928416</v>
+        <v>22.02294095928415</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.089061163832629</v>
+        <v>5.023292403079854</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>13.78721832113334</v>
+        <v>13.76960359460213</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17.99768458502254</v>
+        <v>18.09193604689869</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17.47423101930758</v>
+        <v>17.27491113548475</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>6.206637117195412</v>
+        <v>6.229717429485234</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>20.66271396868079</v>
+        <v>20.75162596118223</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>20.42259117753012</v>
+        <v>20.42786648242937</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.973077928389648</v>
+        <v>5.921954389425972</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15.2664773101985</v>
+        <v>15.21308482675411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19.70791717425502</v>
+        <v>19.72955349988873</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>19.87585070146598</v>
+        <v>19.87790716121866</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.308414157925231</v>
+        <v>8.569918593295595</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.58295162873127</v>
+        <v>16.93177684667784</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21.37410181307352</v>
+        <v>21.42682816062563</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.10232546843733</v>
+        <v>23.9269616570053</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.00145891871105</v>
+        <v>10.99876297603831</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>25.01118771467042</v>
+        <v>25.38544080170061</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>27.11368174204094</v>
+        <v>26.90540685326727</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.710525281782676</v>
+        <v>8.78283494484228</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17.62793364761281</v>
+        <v>17.71276665913414</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22.59109651474337</v>
+        <v>22.59166687278503</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>24.73425338799832</v>
+        <v>24.57209262760883</v>
       </c>
     </row>
     <row r="31">
